--- a/corpus_golden_datasets/golden_datasets.xlsx
+++ b/corpus_golden_datasets/golden_datasets.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10905"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11214"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://azcollaboration-my.sharepoint.com/personal/kxbb828_astrazeneca_net/Documents/Desktop/WIP-ESE/17_Corpus/corpus_golden_datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="467" documentId="8_{ABD65610-35F0-C444-99BE-35952CD4FF45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4F488138-9130-204E-9E07-EC3971F509AC}"/>
+  <xr:revisionPtr revIDLastSave="532" documentId="8_{ABD65610-35F0-C444-99BE-35952CD4FF45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4644BC1F-D9E6-074E-AAD4-67F4BB8EF3F6}"/>
   <bookViews>
-    <workbookView xWindow="-18680" yWindow="-600" windowWidth="32380" windowHeight="17440" activeTab="1" xr2:uid="{E84344FD-9EEB-D84D-B0C7-25844242E292}"/>
+    <workbookView xWindow="23200" yWindow="2700" windowWidth="27360" windowHeight="17440" activeTab="1" xr2:uid="{E84344FD-9EEB-D84D-B0C7-25844242E292}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="ANCA" sheetId="1" r:id="rId1"/>
+    <sheet name="s12931-025-03376-6.pdf" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="232">
   <si>
     <t>ANCA</t>
   </si>
@@ -649,13 +649,140 @@
   </si>
   <si>
     <t>Count of Abbreviations</t>
+  </si>
+  <si>
+    <t>ABBR</t>
+  </si>
+  <si>
+    <t>TRPC</t>
+  </si>
+  <si>
+    <t>Entity</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>TRPC channels contribute to endothelial dysfunction in pulmonary arterial hypertensio</t>
+  </si>
+  <si>
+    <t>PAH</t>
+  </si>
+  <si>
+    <t>Pulmonary arterial hypertension (PAH) is a rare, fatal, and progressive pulmonary vascular disease.</t>
+  </si>
+  <si>
+    <r>
+      <t>Intracellular calcium (Ca</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>2+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>) variations are essential in these processes. </t>
+    </r>
+  </si>
+  <si>
+    <t>Ca2+</t>
+  </si>
+  <si>
+    <t>TRPC1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transient receptor potential canonical channels (TRPC1 to 7) </t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>transient receptor potential canonical</t>
+  </si>
+  <si>
+    <t>Pulmonary arterial hypertension</t>
+  </si>
+  <si>
+    <t>Intracellular calcium </t>
+  </si>
+  <si>
+    <t>transient receptor potential canonical channel 1</t>
+  </si>
+  <si>
+    <t>TRPC3</t>
+  </si>
+  <si>
+    <t>TRPC4</t>
+  </si>
+  <si>
+    <t>TRPC6</t>
+  </si>
+  <si>
+    <t>transient receptor potential canonical channel 3</t>
+  </si>
+  <si>
+    <t>transient receptor potential canonical channel 4</t>
+  </si>
+  <si>
+    <t>transient receptor potential canonical channel 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We found that four TRPC channels (TRPC1, TRPC3, TRPC4, and TRPC6) were expressed in human pulmonary endothelial cells (hPECs) </t>
+  </si>
+  <si>
+    <t>hPECs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">human pulmonary endothelial cells </t>
+  </si>
+  <si>
+    <t>PAH-hPECs</t>
+  </si>
+  <si>
+    <t>By knocking down each of these channels in hPECs isolated from PAH patients (PAH-hPECs)</t>
+  </si>
+  <si>
+    <r>
+      <t>store-operated Ca</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>2+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> entry (SOCE).</t>
+    </r>
+  </si>
+  <si>
+    <t>SOCE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -676,8 +803,26 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -687,12 +832,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -720,9 +859,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -747,7 +884,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Tetard, Frederic" refreshedDate="45907.747037615743" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="195" xr:uid="{C5148A62-8DBC-4B4C-A2F5-549DFB95FEFC}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:B1048576" sheet="Sheet1"/>
+    <worksheetSource ref="A1:B1048576" sheet="ANCA"/>
   </cacheSource>
   <cacheFields count="2">
     <cacheField name="Abbreviations" numFmtId="0">
@@ -2171,7 +2308,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB3D7809-7963-9C4F-9EED-08ADE1A45043}">
   <dimension ref="A1:E195"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <selection activeCell="D53" sqref="D4:D54"/>
       <pivotSelection pane="bottomRight" axis="axisRow" activeRow="52" activeCol="3" previousRow="51" previousCol="3" click="1" r:id="rId1">
         <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
@@ -4071,468 +4208,188 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E905ABA-45A7-2E4C-BF92-CFA1C09263C2}">
-  <dimension ref="D2:E51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{554C235E-1239-CE4C-ADF1-67ABD32C89E2}">
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="15.1640625" customWidth="1"/>
+    <col min="3" max="3" width="42.5" customWidth="1"/>
+    <col min="4" max="4" width="139" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="3" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D3">
-        <f>D2+1</f>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="4" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D4">
-        <f t="shared" ref="D4:D51" si="0">D3+1</f>
-        <v>3</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D5">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D6">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D7">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D8">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D9">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D10">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D11">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D12">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D13">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D14">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D15">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="16" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D16">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D17">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D18">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D19">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D20">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D21">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D22">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D23">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D24">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D25">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="26" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D26">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D27">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D28">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="29" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D29">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D30">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="31" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D31">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="32" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D32">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D33">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="34" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D34">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="35" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D35">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D36">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="37" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D37">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="38" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D38">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="39" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D39">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="40" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D40">
-        <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="41" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D41">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="42" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D42">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="43" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D43">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="44" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D44">
-        <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="45" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D45">
-        <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="46" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D46">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="47" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D47">
-        <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="48" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D48">
-        <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="49" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D49">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="50" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D50">
-        <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="51" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D51">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>64</v>
-      </c>
+    </row>
+    <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>203</v>
+      </c>
+      <c r="B5" t="s">
+        <v>212</v>
+      </c>
+      <c r="C5" t="s">
+        <v>218</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>203</v>
+      </c>
+      <c r="B6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>203</v>
+      </c>
+      <c r="B7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C7" t="s">
+        <v>223</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>203</v>
+      </c>
+      <c r="B8" t="s">
+        <v>221</v>
+      </c>
+      <c r="C8" t="s">
+        <v>224</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>203</v>
+      </c>
+      <c r="B9" t="s">
+        <v>226</v>
+      </c>
+      <c r="C9" t="s">
+        <v>227</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>203</v>
+      </c>
+      <c r="B10" t="s">
+        <v>228</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>231</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D18" s="2"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E2:E51">
-    <sortCondition ref="E1:E51"/>
-  </sortState>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>